--- a/biology/Zoologie/Emydopoidea/Emydopoidea.xlsx
+++ b/biology/Zoologie/Emydopoidea/Emydopoidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Emydopoidea sont une super-famille éteinte de thérapsides dicynodontes therochéloniens ayant existé du  Permien supérieur au Trias moyen et qui comprend quelques genres basals, les emydopidés, ainsi que les Kistecephalia[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Emydopoidea sont une super-famille éteinte de thérapsides dicynodontes therochéloniens ayant existé du  Permien supérieur au Trias moyen et qui comprend quelques genres basals, les emydopidés, ainsi que les Kistecephalia.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La super-famille des Emydopoidea a été créée en 1983 par les paléontologues sud-africains Michael A. Cluver (d) et Gillian M. King (d)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La super-famille des Emydopoidea a été créée en 1983 par les paléontologues sud-africains Michael A. Cluver (d) et Gillian M. King (d).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ci-dessous, un cladogramme de Kammerer et al. (2011) montrant les relations phylogénétiques des émydopoïdes[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ci-dessous, un cladogramme de Kammerer et al. (2011) montrant les relations phylogénétiques des émydopoïdes :
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Michael A. Cluver et Gillian M. King, « A reassessment of the relationships of Permian Dicynodontia (Reptilia, Therapsida) and a new classification of dicynodonts », Annals of the South African Museum, Le Cap, Rustica Press (PTY.) Ltd., vol. 91,‎ 1983, p. 195-273 (ISSN 0303-2515, OCLC 1647291, lire en ligne)</t>
         </is>
